--- a/popgen_stats/Dongsha_stats.xlsx
+++ b/popgen_stats/Dongsha_stats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/github/dongsha/popgen_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D08D210C-D706-384E-8E02-8F2D201DEEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5246951-2766-B44C-9AC0-95FAC417C45F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19840" yWindow="10160" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="25160" yWindow="3660" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dongsha_stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>N_haplotypes</t>
   </si>
@@ -184,14 +186,56 @@
   </si>
   <si>
     <t>Regional Mean Fus Fs</t>
+  </si>
+  <si>
+    <t>k-means p-value</t>
+  </si>
+  <si>
+    <t>Best Mean</t>
+  </si>
+  <si>
+    <t>Second Best Mean</t>
+  </si>
+  <si>
+    <t>p-value Best Mean &gt; Second Mean</t>
+  </si>
+  <si>
+    <t>Log Bayes Factor</t>
+  </si>
+  <si>
+    <t>Panmixia</t>
+  </si>
+  <si>
+    <t>Dongsha Sink</t>
+  </si>
+  <si>
+    <t>Dongsha Source</t>
+  </si>
+  <si>
+    <t>Stepping Stone</t>
+  </si>
+  <si>
+    <t>a. Panmixia</t>
+  </si>
+  <si>
+    <t>b. N Island</t>
+  </si>
+  <si>
+    <t>c. Stepping Stone</t>
+  </si>
+  <si>
+    <t>d. Dongsha Source</t>
+  </si>
+  <si>
+    <t>e. Dongsha Sink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -681,7 +725,7 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1040,11 +1084,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1984,4 +2028,392 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72349590-5B79-B74C-9457-2822CF3EC1F7}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-986.98678199999995</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-1031.3365759999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-991.76105966666705</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-985.34783933333301</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-987.04842900000006</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3.2778853333331899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-1192.138332</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-1216.9007076666701</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-1201.78335233333</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-1194.9826290000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-1195.2565363333299</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5.6885939999997399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-1050.4937803333301</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-1073.99187533333</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1028.0799606666701</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-1025.0987703333301</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-1024.5194753333301</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.15859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-1595.7698276666699</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1596.2495816666701</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-1579.4825326666701</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-1572.1196866666701</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-1579.87640333333</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>14.725692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-1194.68397766667</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1225.1666066666701</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1192.2326043333301</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-1190.209846</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-1192.37135933333</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4.0455166666665701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-1862.75390233333</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-1863.3945076666701</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-1861.746335</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-1861.77167766667</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-1864.0310156666701</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7">
+        <v>0.503</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5.0685333333149202E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-839.28244166666695</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-838.86858566666695</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-838.85908700000005</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-838.83897066666702</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-838.84686333333298</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8">
+        <v>0.46</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.5785333333269602E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-2295.0920976666698</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-2334.4021423333302</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-2303.0518630000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-2299.2518086666701</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-2303.7800533333302</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8.3194220000004897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-1420.5078229999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-1495.6743673333301</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-1484.78696666667</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-1479.51962</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-1587.21783166667</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>118.023594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>1E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/popgen_stats/Dongsha_stats.xlsx
+++ b/popgen_stats/Dongsha_stats.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/github/dongsha/popgen_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5246951-2766-B44C-9AC0-95FAC417C45F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656AC9CB-643C-A84F-8C0D-DE46D1C33E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25160" yWindow="3660" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19160" yWindow="7500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dongsha_stats" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1087,14 +1086,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1643,13 +1644,13 @@
         <v>-10.079151814247099</v>
       </c>
       <c r="P10">
-        <v>-26.7161422629468</v>
+        <v>-8.8129660469340791</v>
       </c>
       <c r="Q10">
-        <v>63.778515416737399</v>
+        <v>2.2255096914532699</v>
       </c>
       <c r="R10">
-        <v>0.76921693411803804</v>
+        <v>9.3762768387526799E-2</v>
       </c>
       <c r="S10">
         <v>0.36200834536162702</v>
@@ -2034,7 +2035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72349590-5B79-B74C-9457-2822CF3EC1F7}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
